--- a/config_hlw/act_042_xshb_config.xlsx
+++ b/config_hlw/act_042_xshb_config.xlsx
@@ -49,9 +49,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>limit|限制</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -165,6 +162,10 @@
   </si>
   <si>
     <t>game_Fishing3DHall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,11 +595,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
@@ -611,7 +612,7 @@
     <col min="12" max="12" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -622,72 +623,72 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="16" customFormat="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="21">
         <v>100019</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="12">
         <v>11</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="16" customFormat="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>0</v>
@@ -696,32 +697,32 @@
         <v>100020</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="5">
         <v>12</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="16" customFormat="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>3</v>
@@ -730,31 +731,31 @@
         <v>100021</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="12">
         <v>13</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="16" customFormat="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>2</v>
@@ -763,32 +764,32 @@
         <v>100022</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="12">
         <v>14</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="16" customFormat="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>1</v>
@@ -797,32 +798,32 @@
         <v>100023</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="12">
         <v>15</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="16" customFormat="1">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>3</v>
@@ -831,62 +832,62 @@
         <v>100024</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="12">
         <v>16</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>

--- a/config_hlw/act_042_xshb_config.xlsx
+++ b/config_hlw/act_042_xshb_config.xlsx
@@ -135,10 +135,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>任意游戏累计赢金10000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>任意游戏累计赢金50000</t>
   </si>
   <si>
@@ -166,6 +162,10 @@
   </si>
   <si>
     <t>0.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1000000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +596,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -655,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="21">
         <v>100019</v>
@@ -677,7 +677,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="16">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3" s="6">
         <v>1</v>
@@ -764,7 +764,7 @@
         <v>100022</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="12" t="s">
@@ -778,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="16">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>100023</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="12" t="s">
@@ -812,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" s="16">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>100024</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="12" t="s">
@@ -846,7 +846,7 @@
         <v>22</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="16">
         <v>1</v>
